--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,16 +46,16 @@
     <t>useless</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>broke</t>
@@ -76,165 +76,183 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>family</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
@@ -247,16 +265,19 @@
     <t>really</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -617,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -804,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8622291021671826</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="L5">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M5">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3636363636363636</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3333333333333333</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7012987012987013</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1513513513513514</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.6901408450704225</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1057,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.6779661016949152</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1083,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1109,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6500802568218299</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L12">
-        <v>810</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>810</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>436</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1135,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6363636363636364</v>
+        <v>0.6613162118780096</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>824</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>824</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1161,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6086956521739131</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1187,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6052631578947368</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1192,13 +1213,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.578125</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1218,13 +1239,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.5657142857142857</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1244,13 +1265,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5576923076923077</v>
+        <v>0.609375</v>
       </c>
       <c r="L18">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1270,13 +1291,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.5571428571428572</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1296,13 +1317,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5542168674698795</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1322,13 +1343,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1348,13 +1369,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.52</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1374,13 +1395,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5147058823529411</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1400,25 +1421,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>39</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>37</v>
-      </c>
-      <c r="M24">
-        <v>37</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1452,13 +1473,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5111111111111111</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1478,13 +1499,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5029940119760479</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L27">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1504,13 +1525,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4791666666666667</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1530,13 +1551,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4736842105263158</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1556,13 +1577,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.463855421686747</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1582,13 +1603,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4360902255639098</v>
+        <v>0.46</v>
       </c>
       <c r="L31">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1608,13 +1629,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3968253968253968</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1634,13 +1655,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3759398496240601</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1660,13 +1681,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3597122302158273</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1686,13 +1707,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3553921568627451</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L35">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>263</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1712,13 +1733,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3540856031128405</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L36">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="M36">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>166</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1738,13 +1759,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3492822966507177</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L37">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M37">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1756,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1764,13 +1785,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1782,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1790,13 +1811,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3136986301369863</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L39">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1808,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>501</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1816,13 +1837,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.2673267326732673</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1834,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1842,13 +1863,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.2612612612612613</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1860,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>82</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1868,13 +1889,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.2582781456953642</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1886,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1894,13 +1915,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2540365984930033</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L43">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1912,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>693</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1920,13 +1941,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2410596026490066</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L44">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1938,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>573</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1946,13 +1967,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.225705329153605</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L45">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1964,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1972,13 +1993,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2162162162162162</v>
+        <v>0.2604951560818084</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1990,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>87</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1998,13 +2019,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2135549872122762</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L47">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2016,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>615</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2024,13 +2045,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.212962962962963</v>
+        <v>0.2264900662251656</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2042,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>85</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2050,13 +2071,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.1946308724832215</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2068,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2076,25 +2097,25 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.1766109785202864</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>345</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2102,25 +2123,25 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.1666666666666667</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L51">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>380</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2128,25 +2149,25 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.1594594594594595</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L52">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>311</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2154,25 +2175,25 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.1586715867158671</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="L53">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>228</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2180,13 +2201,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1463414634146341</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2198,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2206,13 +2227,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1454545454545454</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2224,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>376</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2232,13 +2253,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1407407407407407</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2250,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>232</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2258,13 +2279,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1237113402061856</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2276,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>255</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2284,25 +2305,25 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1170731707317073</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L58">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M58">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2310,13 +2331,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1133004926108374</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2328,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2336,13 +2357,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1092436974789916</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2354,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2362,25 +2383,25 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.08464849354375897</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L61">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>638</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2388,25 +2409,25 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.07857811038353602</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L62">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>985</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2414,13 +2435,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.07650273224043716</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="L63">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2432,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2440,13 +2461,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.05719557195571956</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2458,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>511</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2466,25 +2487,25 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.05339805825242718</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2492,25 +2513,25 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.05182341650671785</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>494</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2518,25 +2539,207 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.04861111111111111</v>
+        <v>0.08920863309352518</v>
       </c>
       <c r="L67">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M67">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1096</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68">
+        <v>0.08707865168539326</v>
+      </c>
+      <c r="L68">
+        <v>93</v>
+      </c>
+      <c r="M68">
+        <v>97</v>
+      </c>
+      <c r="N68">
+        <v>0.96</v>
+      </c>
+      <c r="O68">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <v>0.96</v>
+      </c>
+      <c r="O69">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70">
+        <v>0.06678230702515178</v>
+      </c>
+      <c r="L70">
+        <v>77</v>
+      </c>
+      <c r="M70">
+        <v>81</v>
+      </c>
+      <c r="N70">
+        <v>0.95</v>
+      </c>
+      <c r="O70">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71">
+        <v>0.06642066420664207</v>
+      </c>
+      <c r="L71">
+        <v>36</v>
+      </c>
+      <c r="M71">
+        <v>36</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72">
+        <v>0.05384615384615385</v>
+      </c>
+      <c r="L72">
+        <v>28</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>0.93</v>
+      </c>
+      <c r="O72">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73">
+        <v>0.05326876513317191</v>
+      </c>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>0.96</v>
+      </c>
+      <c r="O73">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K74">
+        <v>0.02887139107611549</v>
+      </c>
+      <c r="L74">
+        <v>22</v>
+      </c>
+      <c r="M74">
+        <v>27</v>
+      </c>
+      <c r="N74">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O74">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
